--- a/src/main/resources/template/doc/sit_simple/テーブル定義書.xlsx
+++ b/src/main/resources/template/doc/sit_simple/テーブル定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yuichi.kuwahara\Dropbox\NetBeansProjects2\sitoolkit\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\netbeans-workspace\workspace_sitgithub\sit-core\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
   <si>
     <t>No.</t>
   </si>
@@ -437,6 +437,13 @@
   </si>
   <si>
     <t>ユーザ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>バイト数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1175,7 +1182,7 @@
       </c>
       <c r="G2" s="26" t="str">
         <f ca="1">CELL("filename",G2)</f>
-        <v>D:\Users\yuichi.kuwahara\Dropbox\NetBeansProjects2\sitoolkit\doc\[テーブル定義書.xlsx]表紙</v>
+        <v>D:\dev\netbeans-workspace\workspace_sitgithub\sit-core\doc\[テーブル定義書.xlsx]表紙</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1184,7 +1191,7 @@
       </c>
       <c r="G3" s="26">
         <f ca="1">FIND("[",G2)</f>
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1197,7 +1204,7 @@
       </c>
       <c r="G4" s="26">
         <f ca="1">FIND(".xlsx",G2)</f>
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1301,7 +1308,7 @@
     <row r="23" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="32">
         <f ca="1">MAX(更新履歴!C5:C15)</f>
-        <v>41378</v>
+        <v>41497</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -1497,7 +1504,7 @@
       </c>
       <c r="C5" s="12">
         <f ca="1">TODAY() - 31</f>
-        <v>41378</v>
+        <v>41497</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>41</v>
@@ -1725,7 +1732,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1733,29 +1740,31 @@
   <cols>
     <col min="1" max="1" width="5.6328125" style="1" customWidth="1"/>
     <col min="2" max="7" width="15.6328125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="5.6328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.6328125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6328125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="str">
         <f ca="1">表紙!$A$20</f>
         <v>テーブル定義書</v>
       </c>
-      <c r="L1" s="23" t="str">
+      <c r="M1" s="23" t="str">
         <f>表紙!A18</f>
         <v>SIToolkit Sample</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="str">
         <f>表紙!$A$22</f>
         <v>ver. 0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1781,19 +1790,22 @@
         <v>58</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1814,18 +1826,22 @@
       <c r="H5" s="5">
         <v>8</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5">
+        <f>IF(E5="任意文字列",H5*4,H5)</f>
+        <v>8</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -1846,16 +1862,20 @@
       <c r="H6" s="4">
         <v>127</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4">
+        <f t="shared" ref="I6:I9" si="0">IF(E6="任意文字列",H6*4,H6)</f>
+        <v>127</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -1876,14 +1896,18 @@
       <c r="H7" s="8">
         <v>32</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="4"/>
+      <c r="I7" s="8">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="J7" s="7"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -1904,14 +1928,18 @@
       <c r="H8" s="8">
         <v>32</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="4"/>
+      <c r="I8" s="8">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="J8" s="7"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -1932,10 +1960,14 @@
       <c r="H9" s="8">
         <v>1</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="7"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1947,7 +1979,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="79" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Century,標準"&amp;9© 20xx XXX All Rights Reserved&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;9&amp;A&amp;R&amp;"ＭＳ Ｐゴシック,太字"&amp;9&amp;P/&amp;N</oddFooter>
   </headerFooter>
@@ -1959,7 +1991,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1967,29 +1999,31 @@
   <cols>
     <col min="1" max="1" width="5.6328125" style="1" customWidth="1"/>
     <col min="2" max="7" width="15.6328125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="5.6328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.6328125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6328125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="str">
         <f ca="1">表紙!$A$20</f>
         <v>テーブル定義書</v>
       </c>
-      <c r="L1" s="23" t="str">
+      <c r="M1" s="23" t="str">
         <f>表紙!A18</f>
         <v>SIToolkit Sample</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="str">
         <f>表紙!$A$22</f>
         <v>ver. 0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2015,19 +2049,22 @@
         <v>58</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -2048,20 +2085,24 @@
       <c r="H5" s="5">
         <v>8</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5">
+        <f>IF(E5="任意文字列",H5*4,H5)</f>
+        <v>8</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -2075,23 +2116,27 @@
         <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4">
         <v>8</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4">
+        <f>IF(E6="任意文字列",H6*4,H6)</f>
+        <v>8</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>2</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2112,7 +2157,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -2120,29 +2165,31 @@
   <cols>
     <col min="1" max="1" width="5.6328125" style="1" customWidth="1"/>
     <col min="2" max="7" width="15.6328125" style="1" customWidth="1"/>
-    <col min="8" max="10" width="5.6328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.6328125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6328125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="str">
         <f ca="1">表紙!$A$20</f>
         <v>テーブル定義書</v>
       </c>
-      <c r="L1" s="23" t="str">
+      <c r="M1" s="23" t="str">
         <f>表紙!A18</f>
         <v>SIToolkit Sample</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="str">
         <f>表紙!$A$22</f>
         <v>ver. 0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2168,19 +2215,22 @@
         <v>58</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -2201,18 +2251,22 @@
       <c r="H5" s="5">
         <v>8</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5">
+        <f>IF(E5="任意文字列",H5*4,H5)</f>
+        <v>8</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -2233,10 +2287,14 @@
       <c r="H6" s="4">
         <v>64</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="4"/>
+      <c r="I6" s="4">
+        <f>IF(E6="任意文字列",H6*4,H6)</f>
+        <v>256</v>
+      </c>
+      <c r="J6" s="7"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>54</v>
       </c>
     </row>

--- a/src/main/resources/template/doc/sit_simple/テーブル定義書.xlsx
+++ b/src/main/resources/template/doc/sit_simple/テーブル定義書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\netbeans-workspace\workspace_sitgithub\sit-core\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sit\netbeans-workspace\workspace-sit-archetype\sit-core\src\main\resources\template\doc\sit_simple\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
   <si>
     <t>No.</t>
   </si>
@@ -71,9 +71,6 @@
     <t>主キー</t>
   </si>
   <si>
-    <t>外部キー</t>
-  </si>
-  <si>
     <t>コード仕様</t>
   </si>
   <si>
@@ -113,16 +110,10 @@
     <t>char</t>
   </si>
   <si>
-    <t>m_user.user_id</t>
-  </si>
-  <si>
     <t>グループID</t>
   </si>
   <si>
     <t>group_id</t>
-  </si>
-  <si>
-    <t>m_group.group_id</t>
   </si>
   <si>
     <t>グループ名</t>
@@ -444,6 +435,32 @@
     <rPh sb="3" eb="4">
       <t>スウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>外部キー_1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>外部キー_1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>外部キー_1
+m_user</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>外部キー_2
+m_group</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>group_id</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -673,7 +690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,6 +774,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1178,20 +1198,20 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F2" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G2" s="26" t="str">
         <f ca="1">CELL("filename",G2)</f>
-        <v>D:\dev\netbeans-workspace\workspace_sitgithub\sit-core\doc\[テーブル定義書.xlsx]表紙</v>
+        <v>D:\sit\netbeans-workspace\workspace-sit-archetype\sit-core\src\main\resources\template\doc\sit_simple\[テーブル定義書.xlsx]表紙</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F3" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G3" s="26">
         <f ca="1">FIND("[",G2)</f>
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1200,11 +1220,11 @@
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
       <c r="F4" s="27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G4" s="26">
         <f ca="1">FIND(".xlsx",G2)</f>
-        <v>68</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -1268,12 +1288,12 @@
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" s="19" customFormat="1" ht="41.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="A18" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
@@ -1282,37 +1302,37 @@
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" s="19" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="str">
+      <c r="A20" s="30" t="str">
         <f ca="1">MID(G2,G3+1,G4-G3-1)</f>
         <v>テーブル定義書</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="str">
+      <c r="A22" s="32" t="str">
         <f>"ver. "&amp;MAX(更新履歴!A5:A15)</f>
         <v>ver. 0.1</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32">
+      <c r="A23" s="33">
         <f ca="1">MAX(更新履歴!C5:C15)</f>
-        <v>41497</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+        <v>41605</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25"/>
@@ -1483,16 +1503,16 @@
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -1500,14 +1520,14 @@
         <v>0.1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="12">
         <f ca="1">TODAY() - 31</f>
-        <v>41497</v>
+        <v>41605</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1619,16 +1639,16 @@
     </row>
     <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
@@ -1640,7 +1660,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="26.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -1648,19 +1668,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>7</v>
@@ -1672,19 +1692,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>7</v>
@@ -1696,19 +1716,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>7</v>
@@ -1764,12 +1784,12 @@
         <v>ver. 0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -1778,19 +1798,19 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>12</v>
@@ -1799,10 +1819,10 @@
         <v>13</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -1810,16 +1830,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1831,14 +1851,14 @@
         <v>8</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="5">
         <v>1</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1846,16 +1866,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1867,12 +1887,12 @@
         <v>127</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1880,16 +1900,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1904,7 +1924,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1912,16 +1932,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1936,7 +1956,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1944,17 +1964,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="8">
@@ -1968,7 +1988,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1991,7 +2011,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -2002,33 +2022,33 @@
     <col min="8" max="8" width="5.6328125" style="1" customWidth="1"/>
     <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
     <col min="10" max="11" width="5.6328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.6328125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="12" max="13" width="10.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="30.6328125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="str">
         <f ca="1">表紙!$A$20</f>
         <v>テーブル定義書</v>
       </c>
-      <c r="M1" s="23" t="str">
+      <c r="N1" s="23" t="str">
         <f>表紙!A18</f>
         <v>SIToolkit Sample</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="str">
         <f>表紙!$A$22</f>
         <v>ver. 0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="26.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -2037,19 +2057,19 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>12</v>
@@ -2057,28 +2077,31 @@
       <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -2090,33 +2113,34 @@
         <v>8</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="5">
         <v>1</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -2128,16 +2152,17 @@
         <v>8</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="4">
         <v>2</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>50</v>
+        <v>79</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2189,12 +2214,12 @@
         <v>ver. 0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -2203,19 +2228,19 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>12</v>
@@ -2224,10 +2249,10 @@
         <v>13</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -2235,16 +2260,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -2256,14 +2281,14 @@
         <v>8</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="5">
         <v>1</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -2271,16 +2296,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -2295,7 +2320,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
